--- a/similarities/split_global/harmonic_similarity_timestamps_332.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_332.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:43.540000', '0:01:00')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=43.54</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
+          <t>['F:min', 'C:maj/F', 'F:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:04.320000', '0:01:06.920000')]</t>
+          <t>('0:00:05.840000', '0:00:12.720000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:04.511043', '0:00:10.664331')]</t>
+          <t>('0:00:07.523000', '0:00:10.397000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=64.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=5.84</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-242#t=4.511043']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj/F', 'F:min'], ['F:min', 'C:7/F', 'F:min']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:05.840000', '0:00:12.720000'), ('0:00:14.920000', '0:00:20.760000')]</t>
+          <t>('0:00:07.523000', '0:00:10.397000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:13.980000', '0:00:21.500000'), ('0:01:19.420000', '0:01:26.020000')]</t>
+          <t>('0:00:14.620000', '0:00:22.040000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=5.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=13.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=79.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=14.62</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E:min', 'A:min', 'E:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.500000', '0:00:03.900000')]</t>
+          <t>('0:01:20.200000', '0:01:26.860000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.506000', '0:00:08.175000')]</t>
+          <t>('0:02:11.200000', '0:02:16.340000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=0.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=0.506']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_144</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min/A#', 'C:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:min', 'A:min']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:27.320000', '0:01:37.720000')]</t>
+          <t>('0:01:04.300000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:28.536000', '0:00:33.834000')]</t>
+          <t>('0:00:38.180000', '0:00:51.980000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=87.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-144#t=28.536']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=38.18</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>isophonics_255</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['F#:min', 'B:min/F#', 'F#:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['D:min', 'G:min/5', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:04.520000', '0:01:06.820000')]</t>
+          <t>('0:00:00.560000', '0:00:04.260000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:18.460000', '0:01:33.600000')]</t>
+          <t>('0:00:27.789047', '0:00:31.109501')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=64.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=0.56</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=78.46']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>isophonics_298</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'G:7', 'C:min']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:45.540000')]</t>
+          <t>('0:00:00.344657', '0:00:11.337709')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:02:44.360000', '0:03:26.120000')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=164.36']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['E:7', 'A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:10.780000', '0:00:16.280000'), ('0:00:00.360000', '0:00:02.440000')]</t>
+          <t>('0:00:27.520000', '0:00:38.500000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05.060000'), ('0:00:08.260000', '0:00:12.960000')]</t>
+          <t>('0:00:08.980000', '0:00:24.840000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=27.52</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=8.98</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>isophonics_220</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['D/5', 'E:9', 'A']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D:maj', 'E:9/G#', 'A:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:41.060000', '0:01:42.380000')]</t>
+          <t>('0:00:03.756394', '0:00:05.532721')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
+          <t>('0:01:11.680000', '0:01:16.120000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=101.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-220#t=3.756394</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=66.92']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=71.68</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:43.940000', '0:00:50.680000')]</t>
+          <t>('0:00:01.302038', '0:00:05.439841')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:36.711000', '0:00:39.787000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=43.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-233#t=36.711']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_203</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D/b7', 'C', 'G', 'D']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A', 'G/2', 'D/5', 'A']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:52.193219', '0:00:58.683197')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:59.723000', '0:01:04.464000')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-203#t=52.193219']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=59.723']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>isophonics_244</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['F', 'D:min7', 'G:7']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['Eb', 'C:min7', 'F:7']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:46.560000', '0:00:49.080000')]</t>
+          <t>('0:00:33.048777', '0:00:37.312789')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:30.654941', '0:00:38.514896')]</t>
+          <t>('0:00:03.220000', '0:00:05.650000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-244#t=33.048777</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=30.654941']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=3.22</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_140</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:7/C', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
+          <t>['C:7', 'F', 'C:7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
+          <t>['B:7', 'E:maj', 'B:7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:05.500000', '0:00:22.220000')]</t>
+          <t>('0:00:24.120000', '0:00:27')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:02:33.420000', '0:02:36.600000')]</t>
+          <t>('0:00:02.860000', '0:00:10.920000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-140#t=5.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=153.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=2.86</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:45.460000', '0:00:58.080000')]</t>
+          <t>('0:01:05.440000', '0:01:09.180000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:00.660000', '0:00:08.220000')]</t>
+          <t>('0:00:21.620000', '0:00:25.320000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=45.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=21.62</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_135</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:01.150000', '0:00:05.734000')]</t>
+          <t>('0:00:00.866546', '0:00:12.917702')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:01:02.480000', '0:01:04.920000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.866546</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
